--- a/nordson.omu/src/test/java/com/nordson/testData/Temperature.xlsx
+++ b/nordson.omu/src/test/java/com/nordson/testData/Temperature.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2580" windowWidth="17310" windowHeight="11760" firstSheet="1" activeTab="7"/>
+    <workbookView windowWidth="23040" windowHeight="9335" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalPointCelsius" sheetId="11" r:id="rId1"/>
@@ -20,12 +20,7 @@
     <sheet name="TempsetbckCelsius" sheetId="7" r:id="rId11"/>
     <sheet name="TempsetbckFarnhit" sheetId="10" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -35,7 +30,31 @@
     <t>UILabel</t>
   </si>
   <si>
+    <t>Minlessvalue</t>
+  </si>
+  <si>
+    <t>MaxPlusValue</t>
+  </si>
+  <si>
+    <t>Inrange Value</t>
+  </si>
+  <si>
     <t>Global Set Point</t>
+  </si>
+  <si>
+    <t>MinlessvalueFarh</t>
+  </si>
+  <si>
+    <t>MaxPlusValueFarh</t>
+  </si>
+  <si>
+    <t>Inrange ValueFarh</t>
+  </si>
+  <si>
+    <t>Tank Set Point</t>
+  </si>
+  <si>
+    <t>Hose Set Point</t>
   </si>
   <si>
     <t>MinValueLess1</t>
@@ -55,65 +74,197 @@
   <si>
     <t>Temperature Set back</t>
   </si>
-  <si>
-    <t>Tank Set Point</t>
-  </si>
-  <si>
-    <t>Inrange Value</t>
-  </si>
-  <si>
-    <t>Minlessvalue</t>
-  </si>
-  <si>
-    <t>MaxPlusValue</t>
-  </si>
-  <si>
-    <t>MaxPlusValueFarh</t>
-  </si>
-  <si>
-    <t>Inrange ValueFarh</t>
-  </si>
-  <si>
-    <t>Hose Set Point</t>
-  </si>
-  <si>
-    <t>MinlessvalueFarh</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -126,8 +277,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -161,38 +498,324 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Excel Built-in Normal" xfId="1"/>
+  <cellStyles count="50">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="Excel Built-in Normal" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -274,23 +897,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -326,23 +932,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -484,29 +1073,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.287037037037" customWidth="1"/>
+    <col min="2" max="2" width="12.8518518518519" customWidth="1"/>
+    <col min="3" max="3" width="13.8518518518519" customWidth="1"/>
+    <col min="4" max="4" width="13.4259259259259" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -514,48 +1098,50 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4">
         <v>39</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="4">
         <v>233</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="4">
         <v>137</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.287037037037" customWidth="1"/>
+    <col min="2" max="2" width="16.8518518518519" customWidth="1"/>
+    <col min="3" max="3" width="17.8518518518519" customWidth="1"/>
+    <col min="4" max="4" width="17.4259259259259" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -563,18 +1149,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2">
         <v>15</v>
@@ -588,23 +1174,25 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.1388888888889" customWidth="1"/>
+    <col min="2" max="2" width="14.5740740740741" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="12.5740740740741" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -612,18 +1200,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2">
         <v>4</v>
@@ -637,23 +1225,25 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5740740740741" customWidth="1"/>
+    <col min="2" max="2" width="16.8518518518519" customWidth="1"/>
+    <col min="3" max="3" width="17.8518518518519" customWidth="1"/>
+    <col min="4" max="4" width="17.4259259259259" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -661,18 +1251,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2">
         <v>8</v>
@@ -686,73 +1276,77 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.287037037037" customWidth="1"/>
+    <col min="2" max="2" width="16.8518518518519" customWidth="1"/>
+    <col min="3" max="3" width="17.8518518518519" customWidth="1"/>
+    <col min="4" max="4" width="17.4259259259259" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.25" customHeight="1">
+    <row r="1" ht="14.25" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4">
         <v>99</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="4">
         <v>451</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="4">
         <v>275</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.712962962963" customWidth="1"/>
+    <col min="2" max="2" width="12.8518518518519" customWidth="1"/>
+    <col min="3" max="3" width="13.8518518518519" customWidth="1"/>
+    <col min="4" max="4" width="13.4259259259259" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -760,48 +1354,50 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="4">
         <v>39</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="4">
         <v>205</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="4">
         <v>117</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.4259259259259" customWidth="1"/>
+    <col min="2" max="2" width="16.8518518518519" customWidth="1"/>
+    <col min="3" max="3" width="17.8518518518519" customWidth="1"/>
+    <col min="4" max="4" width="17.4259259259259" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -809,48 +1405,50 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="4">
         <v>99</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="4">
         <v>401</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="4">
         <v>250</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="12.8518518518519" customWidth="1"/>
+    <col min="3" max="3" width="13.8518518518519" customWidth="1"/>
+    <col min="4" max="4" width="13.4259259259259" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -858,48 +1456,50 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="3">
+        <v>9</v>
+      </c>
+      <c r="B2" s="4">
         <v>39</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="4">
         <v>233</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="4">
         <v>137</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.712962962963" customWidth="1"/>
+    <col min="2" max="2" width="16.8518518518519" customWidth="1"/>
+    <col min="3" max="3" width="17.8518518518519" customWidth="1"/>
+    <col min="4" max="4" width="17.4259259259259" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -907,48 +1507,50 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="3">
+        <v>9</v>
+      </c>
+      <c r="B2" s="4">
         <v>99</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="4">
         <v>451</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="4">
         <v>275</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.1388888888889" customWidth="1"/>
+    <col min="2" max="2" width="14.5740740740741" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="12.5740740740741" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -956,21 +1558,21 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2">
         <v>61</v>
@@ -981,42 +1583,44 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.1388888888889" customWidth="1"/>
+    <col min="2" max="2" width="16.8518518518519" customWidth="1"/>
+    <col min="3" max="3" width="17.8518518518519" customWidth="1"/>
+    <col min="4" max="4" width="17.4259259259259" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>13</v>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2">
         <v>8</v>
@@ -1030,23 +1634,25 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.287037037037" customWidth="1"/>
+    <col min="2" max="2" width="14.5740740740741" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="12.5740740740741" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1054,18 +1660,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2">
         <v>8</v>
@@ -1079,5 +1685,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/nordson.omu/src/test/java/com/nordson/testData/Temperature.xlsx
+++ b/nordson.omu/src/test/java/com/nordson/testData/Temperature.xlsx
@@ -80,12 +80,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,6 +105,89 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -115,153 +198,63 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="34">
@@ -279,187 +272,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,15 +494,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -530,6 +514,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,6 +566,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -587,70 +589,61 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -659,91 +652,91 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1235,7 +1228,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -1542,7 +1535,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -1572,7 +1565,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2">
         <v>61</v>
